--- a/DOC/环境机器配置信息.xlsx
+++ b/DOC/环境机器配置信息.xlsx
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use:root、psw:000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>use:dms、psw:123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +161,10 @@
   </si>
   <si>
     <t>192.168.111.125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use:root、psw:what4497</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,6 +333,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,17 +347,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -657,10 +685,10 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -680,18 +708,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -729,102 +757,102 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4"/>
       <c r="E7" s="8" t="s">
         <v>15</v>
@@ -833,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>8</v>
@@ -842,26 +870,26 @@
         <v>16</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -869,14 +897,14 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
@@ -890,7 +918,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G12" s="14"/>
+      <c r="G12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DOC/环境机器配置信息.xlsx
+++ b/DOC/环境机器配置信息.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,76 +95,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>use:dms、psw:123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql:3306</t>
+  </si>
+  <si>
+    <t>mysql:3306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat:2080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.23.35.20:6281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.168.2.109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.168.2.110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124.172.221.179:6288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU:4C；内存：8G；硬盘：50G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU:2C；内存：4G；硬盘：50G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.111.128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.111.127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.111.126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.111.125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use:root、psw:what4497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql:3306
+tomcat:2080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>14.23.35.20:6288:83
-14.23.35.20:6288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql:3306
-tomcat:6288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use:dms、psw:123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql:3306</t>
-  </si>
-  <si>
-    <t>mysql:3306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat:2080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.23.35.20:6281</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.168.2.109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.168.2.110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124.172.221.179:6288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU:4C；内存：8G；硬盘：50G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU:2C；内存：4G；硬盘：50G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.111.128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.111.127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.111.126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.111.125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use:root、psw:what4497</t>
+14.23.35.20:6289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS-经管平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://14.23.35.20:6288</t>
+  </si>
+  <si>
+    <t>需要对外开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://14.23.35.20:5781</t>
+  </si>
+  <si>
+    <t>结算中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://14.23.35.18:8080</t>
+  </si>
+  <si>
+    <t>http://14.23.35.20:6280</t>
+  </si>
+  <si>
+    <t>车道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://14.23.35.20:6281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开放按现有的来，不用修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道是哪个机器，平时都是用这个远程操作正式和测试服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.23.35.20:4289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.23.35.20:4289---------------对应192.168.111.10</t>
+  </si>
+  <si>
+    <t>14.23.35.20:6280----对应192.168.111.62：80</t>
+  </si>
+  <si>
+    <t>http://14.23.35.20:5781--------对应192.168.111.58：8080</t>
+  </si>
+  <si>
+    <t>14.23.35.18:8080-------对应：192.168.111.103：8080</t>
+  </si>
+  <si>
+    <t>14.23.35.20:6288-----对应192.168.111.60:80</t>
+  </si>
+  <si>
+    <t>14.23.35.20:6281------对应192.168.111.126：80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,6 +463,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771036</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>352149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="5905500"/>
+          <a:ext cx="3914286" cy="2209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,19 +796,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
@@ -763,20 +877,20 @@
       <c r="C3" s="12"/>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -785,22 +899,22 @@
       <c r="C4" s="13"/>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -809,20 +923,20 @@
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -831,20 +945,20 @@
       <c r="C6" s="13"/>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -858,19 +972,19 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -879,17 +993,17 @@
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -901,10 +1015,10 @@
       <c r="C9" s="14"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
@@ -917,8 +1031,102 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -927,8 +1135,12 @@
     <mergeCell ref="B3:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/DOC/环境机器配置信息.xlsx
+++ b/DOC/环境机器配置信息.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.111.128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.111.127</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,13 +233,20 @@
   <si>
     <t>14.23.35.20:6281------对应192.168.111.126：80</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.111.128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qpy.hszb.harsons.cn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +287,13 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -375,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,13 +809,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -877,7 +890,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>18</v>
@@ -899,7 +912,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
@@ -923,7 +936,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -945,7 +958,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>19</v>
@@ -972,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -981,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1033,99 +1046,104 @@
     </row>
     <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/环境机器配置信息.xlsx
+++ b/DOC/环境机器配置信息.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,14 @@
   </si>
   <si>
     <t>qpy.hszb.harsons.cn</t>
+  </si>
+  <si>
+    <t>srm.hszb.harsons.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM内网测试地址：http://192.168.111.58:8080/srm/；对应之前外网测试地址：http://14.23.35.20:5780/srm/；需要开外网测试地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -417,6 +425,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,9 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,13 +817,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -835,18 +843,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -884,10 +892,10 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
         <v>29</v>
@@ -908,8 +916,8 @@
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
         <v>28</v>
@@ -932,8 +940,8 @@
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
         <v>27</v>
@@ -954,8 +962,8 @@
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
         <v>53</v>
@@ -978,8 +986,8 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4"/>
       <c r="E7" s="8" t="s">
         <v>15</v>
@@ -1002,8 +1010,8 @@
     </row>
     <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
         <v>21</v>
@@ -1024,8 +1032,8 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
         <v>22</v>
@@ -1142,8 +1150,18 @@
       </c>
     </row>
     <row r="30" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
